--- a/9.0 CRONOGRAMA/CRONOGRAMA- PROGRESO.xlsx
+++ b/9.0 CRONOGRAMA/CRONOGRAMA- PROGRESO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\HIPOLITO PERSONAL\IOARR0007-PROGRESO\9.0 CRONOGRAMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\IOARR0007-PROGRESO\9.0 CRONOGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB96B63E-8700-48BF-A783-5E87FF1E85D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9564288D-EAA9-4356-B172-795878BD38F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINANCIERO" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">FINANCIERO!$A$1:$F$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">FISICO!$A$1:$R$20</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>Acciones</t>
   </si>
@@ -119,24 +119,6 @@
     <t>Evacuacion de aguas Pluviales</t>
   </si>
   <si>
-    <r>
-      <t>Cronograma de inversión IOARR: “</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>OPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA IES, "FRAY DIEGO ORTIZ"- PROGRESO, DISTRITO PROGRESO, PROVINCIA GRAU, DEPARTAMENTO APURIMAC"</t>
-    </r>
-  </si>
-  <si>
-    <t>Cronograma de inversión IOARR: “OPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA IES "FRAY DIEGO ORTIZ"-PROGRESO, DISTRITO PROGRESO, PROVINCIA GRAU, DEPARTAMENTO APURIMAC"</t>
-  </si>
-  <si>
     <t>Evacuacion de Aguas Pluviales</t>
   </si>
   <si>
@@ -147,6 +129,9 @@
   </si>
   <si>
     <t>Subtotal CD + GG + CP</t>
+  </si>
+  <si>
+    <t>Cronograma de inversión IOARR “OPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA INSTITUCIÓN EDUCATIVA SECUNDARIA "FRAY DIEGO ORTIZ" PROGRESO,  DISTRITO PROGRESO, PROVINCIA GRAU, DEPARTAMENTO APURIMAC"</t>
   </si>
 </sst>
 </file>
@@ -154,11 +139,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,13 +203,6 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -621,31 +599,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -654,7 +632,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -672,96 +650,96 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1713,8 +1691,8 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1729,14 +1707,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="A1" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
@@ -1862,19 +1840,19 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38">
+      <c r="A10" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30">
         <f>SUM(C3:C9)</f>
         <v>185197.60500000001</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="30">
         <f>SUM(D3:D9)</f>
         <v>71413.125</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="15">
         <f>F3+F5+F6+F7+F8+F9</f>
         <v>256610.73</v>
@@ -1917,20 +1895,20 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38">
+      <c r="A13" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30">
         <f>C11+C12</f>
         <v>39240.92</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="30">
         <f>D11+D12</f>
         <v>39240.92</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40">
+      <c r="E13" s="31"/>
+      <c r="F13" s="32">
         <f>F10+F11+F12</f>
         <v>335092.57</v>
       </c>
@@ -1984,42 +1962,42 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="33">
         <f>SUM(B10:B16)</f>
         <v>10000</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="33">
         <f>C10+C13+C14</f>
         <v>236919.27500000002</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="33">
         <f>D10+D13+D14</f>
         <v>123134.795</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="33">
         <f>SUM(E10:E16)</f>
         <v>17290.75</v>
       </c>
       <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45">
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="34">
         <f>F13+F14+F15+F16+0.01</f>
         <v>387344.83</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D19" s="46"/>
+      <c r="D19" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2039,8 +2017,8 @@
   </sheetPr>
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="J22" sqref="I22:J22"/>
+    <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2052,61 +2030,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
+      <c r="A1" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35" t="s">
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
       <c r="R2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
@@ -2182,26 +2160,26 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="34"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="58"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2253,7 +2231,7 @@
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -2324,26 +2302,26 @@
       </c>
     </row>
     <row r="11" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="40">
+      <c r="A11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="32">
         <f>R4+R6+R7+R8+R9+R10</f>
         <v>256610.73</v>
       </c>
@@ -2397,26 +2375,26 @@
       </c>
     </row>
     <row r="14" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="40">
+      <c r="A14" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="32">
         <f>R11+R12+R13</f>
         <v>335092.57</v>
       </c>
@@ -2494,91 +2472,86 @@
       </c>
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="49"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="37"/>
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51">
+      <c r="A19" s="55"/>
+      <c r="B19" s="48">
         <f>FINANCIERO!B17</f>
         <v>10000</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54">
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51">
         <f>FINANCIERO!C17</f>
         <v>236919.27500000002</v>
       </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="54">
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="51">
         <f>FINANCIERO!D17</f>
         <v>123134.795</v>
       </c>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="54">
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="51">
         <f>FINANCIERO!E17</f>
         <v>17290.75</v>
       </c>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="49"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="37"/>
     </row>
     <row r="20" spans="1:18" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="58">
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="38">
         <f>R14+R15+R16+R17+0.01</f>
         <v>387344.83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A20:Q20"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B19:E19"/>
@@ -2587,6 +2560,11 @@
     <mergeCell ref="N19:Q19"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
